--- a/resources/excelTest.xlsx
+++ b/resources/excelTest.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhavya Singh\Documents\Projects\ExcelJSutil\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053D55C-E35D-4BB7-9725-584B8F471955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>Sno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+  <si>
+    <t>S.No.</t>
   </si>
   <si>
     <t>fruit_name</t>
@@ -67,19 +56,22 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,19 +375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,13 +415,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -446,7 +438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -463,7 +455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -478,6 +470,288 @@
       </c>
       <c r="E5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>8.203520537427991</v>
+      </c>
+      <c r="Q13">
+        <v>0.02881077333756199</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excelTest.xlsx
+++ b/resources/excelTest.xlsx
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P13">
         <v>8.203520537427991</v>
